--- a/octocopter.xlsx
+++ b/octocopter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Motor</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Motor Kit</t>
-  </si>
-  <si>
-    <t>90 cents cheaper</t>
   </si>
   <si>
     <t>DJI 3508 / 415KV and all parts</t>
@@ -189,12 +186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +475,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,112 +501,112 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>19</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E9" si="0">C3*D3</f>
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>33</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>33</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>76.900000000000006</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -642,12 +639,12 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="3">
         <f>SUM(E3:E9)</f>
         <v>1247.9000000000001</v>
@@ -669,24 +666,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6">
         <v>299</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" ref="E15:E16" si="1">C15*D15</f>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15:E17" si="1">C15*D15</f>
         <v>598</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,11 +702,22 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
+        <v>76.900000000000006</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
@@ -720,15 +725,15 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="3">
-        <f>SUM(E15:E16)</f>
-        <v>1247</v>
+        <f>SUM(E15:E18)</f>
+        <v>1323.9</v>
       </c>
     </row>
   </sheetData>

--- a/octocopter.xlsx
+++ b/octocopter.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\GitHub\lee_5275\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -189,6 +187,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -464,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +487,10 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -499,8 +504,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -517,8 +525,11 @@
         <f t="shared" ref="E3:E9" si="0">C3*D3</f>
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -535,8 +546,11 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -551,8 +565,11 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -570,8 +587,11 @@
         <v>76</v>
       </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -588,8 +608,11 @@
         <f t="shared" si="0"/>
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -607,8 +630,9 @@
         <v>30</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,31 +650,31 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="3">
         <f>SUM(E3:E9)</f>
         <v>1247.9000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -665,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -683,7 +707,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -725,12 +749,12 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3">
         <f>SUM(E15:E18)</f>
         <v>1323.9</v>
